--- a/MIS_Sales_Operations_Reporting.xlsx
+++ b/MIS_Sales_Operations_Reporting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA ANALYST\MIS Executive\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA ANALYST\MIS Executive\Projects\MIS Sales Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE6339-E370-4887-8D87-C15E74761E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68482C18-2005-442C-9C41-C2CECC18A75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{4687B596-4842-446C-81D6-C92EE3C47458}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{4687B596-4842-446C-81D6-C92EE3C47458}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Data" sheetId="2" r:id="rId1"/>
@@ -4118,7 +4118,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4160,6 +4160,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4205,31 +4206,23 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <color rgb="FFFF3300"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF3300"/>
+        <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF3300"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4263,17 +4256,8 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
+        <color rgb="FFFF3300"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4286,15 +4270,21 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF3300"/>
+        <strike val="0"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF3300"/>
+        <strike val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -4320,311 +4310,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -4865,8 +4550,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -4938,13 +4623,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -13869,7 +13554,7 @@
     <dataField name="Sum of Total Sale" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="67">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13881,7 +13566,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13893,7 +13578,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13905,7 +13590,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13914,7 +13599,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -14477,7 +14162,7 @@
     <dataField name="Total Sales Percentage" fld="5" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="62">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -14486,7 +14171,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="21">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14495,10 +14180,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="20">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -14509,7 +14194,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="18">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14588,7 +14273,7 @@
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
+              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
@@ -15099,46 +14784,22 @@
   </rowFields>
   <rowItems count="21">
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="16"/>
+      <x v="9"/>
     </i>
     <i>
       <x v="17"/>
@@ -15147,16 +14808,40 @@
       <x v="10"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i>
       <x v="13"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -15186,7 +14871,7 @@
     <dataField name="Percentage of Total Sales" fld="5" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="57">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -15195,7 +14880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15204,7 +14889,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="15">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15778,7 +15463,7 @@
     <dataField name="Count of Order ID" fld="11" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="54">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -15788,7 +15473,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="13">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15797,7 +15482,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15962,7 +15647,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C6EB0AC-873F-43F8-9449-DE17E75FFEE4}" name="Exception_Table" displayName="Exception_Table" ref="A1:N551" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C6EB0AC-873F-43F8-9449-DE17E75FFEE4}" name="Exception_Table" displayName="Exception_Table" ref="A1:N551" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:N551" xr:uid="{2C6EB0AC-873F-43F8-9449-DE17E75FFEE4}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{EA469DEA-A6D5-4CE8-B3CC-E2F368D04311}" name="Customer Name"/>
@@ -15971,7 +15656,7 @@
     <tableColumn id="4" xr3:uid="{7F28D6BF-2272-45F2-ABE0-034657B599A8}" name="Units Sold"/>
     <tableColumn id="5" xr3:uid="{23B0B8EF-E049-4F83-8FA7-979C6068D3C4}" name="Unit Price"/>
     <tableColumn id="6" xr3:uid="{1CBC674B-C353-4635-B7A5-4F876BB27777}" name="Total Sale"/>
-    <tableColumn id="7" xr3:uid="{D4E30368-9913-4A9C-82B3-8652F9002184}" name="Sale Date" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{D4E30368-9913-4A9C-82B3-8652F9002184}" name="Sale Date" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{6F4B6628-7DB1-4A70-9E83-761BE4AE4566}" name="Order ID"/>
     <tableColumn id="9" xr3:uid="{998F5F33-5377-4221-9E02-B8AB80899149}" name="Price Validation">
       <calculatedColumnFormula>IF(E2=0,"Check Price","OK")</calculatedColumnFormula>
@@ -15988,7 +15673,7 @@
     <tableColumn id="13" xr3:uid="{AF813400-9438-4096-BDEB-463BFDADDCAD}" name="Record Status">
       <calculatedColumnFormula>IF(COUNTIF(I2:J2,"&lt;&gt;OK")&gt;0,"EXCEPTION","CLEAN")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F2F4F5E9-C3E2-4904-A7D6-E2ACFC90B59B}" name="Exception Reason" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{F2F4F5E9-C3E2-4904-A7D6-E2ACFC90B59B}" name="Exception Reason" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(", ",TRUE,
 IF(I2&lt;&gt;"OK","Price Issue",""),
 IF(J2&lt;&gt;"OK","Zero Sale",""),
@@ -29142,7 +28827,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Unknown Customer">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Unknown Customer">
       <formula>NOT(ISERROR(SEARCH("Unknown Customer",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51764,7 +51449,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Unknown Customer">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Unknown Customer">
       <formula>NOT(ISERROR(SEARCH("Unknown Customer",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52077,8 +51762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3272FCF1-2185-4BA5-B014-0324ABD8E6A1}">
   <dimension ref="A3:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52109,77 +51794,77 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="21">
+        <v>33</v>
       </c>
       <c r="C4" s="9">
-        <v>7.0909090909090908E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D4" s="11">
-        <v>74802611.859999999</v>
+        <v>93172725.060000002</v>
       </c>
       <c r="E4" s="9">
-        <v>7.2924899745184013E-2</v>
+        <v>9.083388220056858E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>38</v>
+        <v>105</v>
+      </c>
+      <c r="B5" s="21">
+        <v>25</v>
       </c>
       <c r="C5" s="9">
-        <v>6.9090909090909092E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D5" s="11">
-        <v>67283287.889999986</v>
+        <v>85974983.400000006</v>
       </c>
       <c r="E5" s="9">
-        <v>6.5594327549522047E-2</v>
+        <v>8.3816819882883434E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B6" s="21">
+        <v>31</v>
       </c>
       <c r="C6" s="9">
-        <v>0.06</v>
+        <v>5.6363636363636366E-2</v>
       </c>
       <c r="D6" s="11">
-        <v>93172725.060000002</v>
+        <v>83713560.029999986</v>
       </c>
       <c r="E6" s="9">
-        <v>9.083388220056858E-2</v>
+        <v>8.1612163274805097E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="21">
+        <v>39</v>
       </c>
       <c r="C7" s="9">
-        <v>5.8181818181818182E-2</v>
+        <v>7.0909090909090908E-2</v>
       </c>
       <c r="D7" s="11">
-        <v>14883096.419999998</v>
+        <v>74802611.859999999</v>
       </c>
       <c r="E7" s="9">
-        <v>1.4509497560830316E-2</v>
+        <v>7.2924899745184013E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="21">
         <v>31</v>
       </c>
       <c r="C8" s="9">
@@ -52194,264 +51879,264 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="21">
+        <v>38</v>
       </c>
       <c r="C9" s="9">
-        <v>5.6363636363636366E-2</v>
+        <v>6.9090909090909092E-2</v>
       </c>
       <c r="D9" s="11">
-        <v>83713560.029999986</v>
+        <v>67283287.889999986</v>
       </c>
       <c r="E9" s="9">
-        <v>8.1612163274805097E-2</v>
+        <v>6.5594327549522047E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>31</v>
+        <v>79</v>
+      </c>
+      <c r="B10" s="21">
+        <v>24</v>
       </c>
       <c r="C10" s="9">
-        <v>5.6363636363636366E-2</v>
+        <v>4.363636363636364E-2</v>
       </c>
       <c r="D10" s="11">
-        <v>37566068.04999999</v>
+        <v>63152525.570000008</v>
       </c>
       <c r="E10" s="9">
-        <v>3.6623076096517056E-2</v>
+        <v>6.1567256561399698E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>29</v>
+        <v>85</v>
+      </c>
+      <c r="B11" s="21">
+        <v>24</v>
       </c>
       <c r="C11" s="9">
-        <v>5.2727272727272727E-2</v>
+        <v>4.363636363636364E-2</v>
       </c>
       <c r="D11" s="11">
-        <v>35829042.250000007</v>
+        <v>61302900.219999984</v>
       </c>
       <c r="E11" s="9">
-        <v>3.4929653511796672E-2</v>
+        <v>5.9764060926100898E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>27</v>
+        <v>89</v>
+      </c>
+      <c r="B12" s="21">
+        <v>26</v>
       </c>
       <c r="C12" s="9">
-        <v>4.9090909090909088E-2</v>
+        <v>4.7272727272727272E-2</v>
       </c>
       <c r="D12" s="11">
-        <v>19484910.819999997</v>
+        <v>56474636.869999982</v>
       </c>
       <c r="E12" s="9">
-        <v>1.8995796172889823E-2</v>
+        <v>5.5056997736902563E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13">
-        <v>26</v>
+        <v>109</v>
+      </c>
+      <c r="B13" s="21">
+        <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>4.7272727272727272E-2</v>
+        <v>3.8181818181818185E-2</v>
       </c>
       <c r="D13" s="11">
-        <v>56474636.869999982</v>
+        <v>48111688.800000004</v>
       </c>
       <c r="E13" s="9">
-        <v>5.5056997736902563E-2</v>
+        <v>4.6903978284582488E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="21">
+        <v>23</v>
       </c>
       <c r="C14" s="9">
-        <v>4.7272727272727272E-2</v>
+        <v>4.1818181818181817E-2</v>
       </c>
       <c r="D14" s="11">
-        <v>37214698.920000002</v>
+        <v>47090590.230000012</v>
       </c>
       <c r="E14" s="9">
-        <v>3.6280527114046252E-2</v>
+        <v>4.590851156228988E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15">
+        <v>61</v>
+      </c>
+      <c r="B15" s="21">
         <v>25</v>
       </c>
       <c r="C15" s="9">
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="D15" s="11">
-        <v>85974983.400000006</v>
+        <v>39490269.040000007</v>
       </c>
       <c r="E15" s="9">
-        <v>8.3816819882883434E-2</v>
+        <v>3.8498975357200108E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="B16" s="21">
+        <v>31</v>
       </c>
       <c r="C16" s="9">
-        <v>4.5454545454545456E-2</v>
+        <v>5.6363636363636366E-2</v>
       </c>
       <c r="D16" s="11">
-        <v>39490269.040000007</v>
+        <v>37566068.04999999</v>
       </c>
       <c r="E16" s="9">
-        <v>3.8498975357200108E-2</v>
+        <v>3.6623076096517056E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="21">
         <v>26</v>
       </c>
-      <c r="B17">
-        <v>25</v>
-      </c>
       <c r="C17" s="9">
-        <v>4.5454545454545456E-2</v>
+        <v>4.7272727272727272E-2</v>
       </c>
       <c r="D17" s="11">
-        <v>32047965.190000001</v>
+        <v>37214698.920000002</v>
       </c>
       <c r="E17" s="9">
-        <v>3.1243489905031466E-2</v>
+        <v>3.6280527114046252E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="B18" s="21">
+        <v>29</v>
       </c>
       <c r="C18" s="9">
-        <v>4.363636363636364E-2</v>
+        <v>5.2727272727272727E-2</v>
       </c>
       <c r="D18" s="11">
-        <v>63152525.570000008</v>
+        <v>35829042.250000007</v>
       </c>
       <c r="E18" s="9">
-        <v>6.1567256561399698E-2</v>
+        <v>3.4929653511796672E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19">
-        <v>24</v>
+        <v>213</v>
+      </c>
+      <c r="B19" s="21">
+        <v>17</v>
       </c>
       <c r="C19" s="9">
-        <v>4.363636363636364E-2</v>
+        <v>3.090909090909091E-2</v>
       </c>
       <c r="D19" s="11">
-        <v>61302900.219999984</v>
+        <v>35351781.560000002</v>
       </c>
       <c r="E19" s="9">
-        <v>5.9764060926100898E-2</v>
+        <v>3.4464373127794747E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B20" s="21">
+        <v>25</v>
       </c>
       <c r="C20" s="9">
-        <v>4.1818181818181817E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D20" s="11">
-        <v>24689988.890000001</v>
+        <v>32047965.190000001</v>
       </c>
       <c r="E20" s="9">
-        <v>2.4070215193592266E-2</v>
+        <v>3.1243489905031466E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
+        <v>131</v>
+      </c>
+      <c r="B21" s="21">
         <v>23</v>
       </c>
       <c r="C21" s="9">
         <v>4.1818181818181817E-2</v>
       </c>
       <c r="D21" s="11">
-        <v>47090590.230000012</v>
+        <v>24689988.890000001</v>
       </c>
       <c r="E21" s="9">
-        <v>4.590851156228988E-2</v>
+        <v>2.4070215193592266E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="B22" s="21">
+        <v>27</v>
       </c>
       <c r="C22" s="9">
-        <v>3.8181818181818185E-2</v>
+        <v>4.9090909090909088E-2</v>
       </c>
       <c r="D22" s="11">
-        <v>48111688.800000004</v>
+        <v>19484910.819999997</v>
       </c>
       <c r="E22" s="9">
-        <v>4.6903978284582488E-2</v>
+        <v>1.8995796172889823E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="21">
+        <v>32</v>
       </c>
       <c r="C23" s="9">
-        <v>3.090909090909091E-2</v>
+        <v>5.8181818181818182E-2</v>
       </c>
       <c r="D23" s="11">
-        <v>35351781.560000002</v>
+        <v>14883096.419999998</v>
       </c>
       <c r="E23" s="9">
-        <v>3.4464373127794747E-2</v>
+        <v>1.4509497560830316E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="21">
         <v>550</v>
       </c>
       <c r="C24" s="9">
@@ -52696,7 +52381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0515635B-170E-4EDB-820E-068FBBC23173}">
   <dimension ref="A1:Q551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -52869,7 +52554,7 @@
         <v>CLEAN</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N2:N65" si="5">_xlfn.TEXTJOIN(", ",TRUE,
+        <f t="shared" ref="N3:N65" si="5">_xlfn.TEXTJOIN(", ",TRUE,
 IF(I3&lt;&gt;"OK","Price Issue",""),
 IF(J3&lt;&gt;"OK","Zero Sale",""),
 IF(K3&lt;&gt;"Unique","Duplicate Order",""),
@@ -80327,34 +80012,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A543:A1048576">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Unknown Customer">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Unknown Customer">
       <formula>NOT(ISERROR(SEARCH("Unknown Customer",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M543:M551">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="EXCEPTION">
-      <formula>NOT(ISERROR(SEARCH("EXCEPTION",M543)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="EXCEPTION">
-      <formula>NOT(ISERROR(SEARCH("EXCEPTION",M543)))</formula>
+  <conditionalFormatting sqref="A2:M542">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$M2="EXCEPTION"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I543:I551">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",I543)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Check Price">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Check Price">
       <formula>NOT(ISERROR(SEARCH("Check Price",I543)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J543:J551">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="ZERO SALE">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ZERO SALE">
       <formula>NOT(ISERROR(SEARCH("ZERO SALE",J543)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M542">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$M2="EXCEPTION"</formula>
+  <conditionalFormatting sqref="M543:M551">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="EXCEPTION">
+      <formula>NOT(ISERROR(SEARCH("EXCEPTION",M543)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="EXCEPTION">
+      <formula>NOT(ISERROR(SEARCH("EXCEPTION",M543)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
